--- a/DESIGN/pixel.xlsx
+++ b/DESIGN/pixel.xlsx
@@ -13,9 +13,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Background</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Border</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,8 +59,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,8 +95,23 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,20 +119,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="4" builtinId="10"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -375,15 +464,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="40" width="4.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1024</v>
       </c>
@@ -505,7 +597,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1064</v>
       </c>
@@ -627,7 +719,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1104</v>
       </c>
@@ -749,7 +841,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1144</v>
       </c>
@@ -774,76 +866,76 @@
       <c r="H4" s="1">
         <v>1151</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>1152</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>1153</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>1154</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>1155</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>1156</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>1157</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>1158</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>1159</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>1160</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>1161</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>1162</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>1163</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>1164</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>1165</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <v>1166</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
         <v>1167</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="2">
         <v>1168</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="2">
         <v>1169</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="2">
         <v>1170</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="2">
         <v>1171</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="2">
         <v>1172</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="2">
         <v>1173</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="2">
         <v>1174</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="2">
         <v>1175</v>
       </c>
       <c r="AG4" s="1">
@@ -871,7 +963,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1184</v>
       </c>
@@ -896,76 +988,76 @@
       <c r="H5" s="1">
         <v>1191</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>1192</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>1193</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1194</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>1195</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>1196</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>1197</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>1198</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>1199</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>1200</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <v>1201</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="3">
         <v>1202</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="3">
         <v>1203</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="3">
         <v>1204</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="3">
         <v>1205</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="3">
         <v>1206</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
         <v>1207</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <v>1208</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="3">
         <v>1209</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="3">
         <v>1210</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="3">
         <v>1211</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="3">
         <v>1212</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="3">
         <v>1213</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="3">
         <v>1214</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="2">
         <v>1215</v>
       </c>
       <c r="AG5" s="1">
@@ -993,7 +1085,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1224</v>
       </c>
@@ -1018,76 +1110,76 @@
       <c r="H6" s="1">
         <v>1231</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>1232</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>1233</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>1234</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>1235</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>1236</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>1237</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>1238</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>1239</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>1240</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>1241</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>1242</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>1243</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>1244</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>1245</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
         <v>1246</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="2">
         <v>1247</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="2">
         <v>1248</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="3">
         <v>1249</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="4">
         <v>1250</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="4">
         <v>1251</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="4">
         <v>1252</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="4">
         <v>1253</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="3">
         <v>1254</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="2">
         <v>1255</v>
       </c>
       <c r="AG6" s="1">
@@ -1115,7 +1207,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1264</v>
       </c>
@@ -1140,76 +1232,76 @@
       <c r="H7" s="1">
         <v>1271</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>1272</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>1273</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>1274</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>1275</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>1276</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>1277</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>1278</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>1279</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>1280</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <v>1281</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>1282</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <v>1283</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <v>1284</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>1285</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="3">
         <v>1286</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="2">
         <v>1287</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="2">
         <v>1288</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="3">
         <v>1289</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="4">
         <v>1290</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="4">
         <v>1291</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="4">
         <v>1292</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="4">
         <v>1293</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="3">
         <v>1294</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="2">
         <v>1295</v>
       </c>
       <c r="AG7" s="1">
@@ -1237,7 +1329,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1304</v>
       </c>
@@ -1262,76 +1354,76 @@
       <c r="H8" s="1">
         <v>1311</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>1312</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>1313</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>1314</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>1315</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>1316</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>1317</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>1318</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>1319</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>1320</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>1321</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>1322</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>1323</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <v>1324</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>1325</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="3">
         <v>1326</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="2">
         <v>1327</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="2">
         <v>1328</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="3">
         <v>1329</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="4">
         <v>1330</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="4">
         <v>1331</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="4">
         <v>1332</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="4">
         <v>1333</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="3">
         <v>1334</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="2">
         <v>1335</v>
       </c>
       <c r="AG8" s="1">
@@ -1359,7 +1451,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1344</v>
       </c>
@@ -1384,76 +1476,76 @@
       <c r="H9" s="1">
         <v>1351</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>1352</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>1353</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>1354</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>1355</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>1356</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>1357</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>1358</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>1359</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>1360</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>1361</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <v>1362</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="4">
         <v>1363</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="4">
         <v>1364</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="4">
         <v>1365</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="3">
         <v>1366</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="2">
         <v>1367</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="2">
         <v>1368</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="3">
         <v>1369</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="4">
         <v>1370</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="4">
         <v>1371</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="4">
         <v>1372</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="4">
         <v>1373</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="3">
         <v>1374</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="2">
         <v>1375</v>
       </c>
       <c r="AG9" s="1">
@@ -1481,7 +1573,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1384</v>
       </c>
@@ -1506,76 +1598,76 @@
       <c r="H10" s="1">
         <v>1391</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>1392</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>1393</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>1394</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>1395</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>1396</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>1397</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>1398</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <v>1399</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <v>1400</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>1401</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>1402</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="3">
         <v>1403</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="3">
         <v>1404</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="3">
         <v>1405</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="3">
         <v>1406</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="2">
         <v>1407</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="2">
         <v>1408</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="3">
         <v>1409</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="3">
         <v>1410</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="3">
         <v>1411</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="3">
         <v>1412</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="3">
         <v>1413</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="3">
         <v>1414</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="2">
         <v>1415</v>
       </c>
       <c r="AG10" s="1">
@@ -1603,7 +1695,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1424</v>
       </c>
@@ -1628,76 +1720,76 @@
       <c r="H11" s="1">
         <v>1431</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>1432</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>1433</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>1434</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>1435</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>1436</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>1437</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>1438</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <v>1439</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <v>1440</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <v>1441</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="2">
         <v>1442</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="2">
         <v>1443</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <v>1444</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="2">
         <v>1445</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="2">
         <v>1446</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="2">
         <v>1447</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="2">
         <v>1448</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="2">
         <v>1449</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="2">
         <v>1450</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="2">
         <v>1451</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="2">
         <v>1452</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="2">
         <v>1453</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="2">
         <v>1454</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="2">
         <v>1455</v>
       </c>
       <c r="AG11" s="1">
@@ -1725,7 +1817,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1464</v>
       </c>
@@ -1750,76 +1842,76 @@
       <c r="H12" s="1">
         <v>1471</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>1472</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>1473</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>1474</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>1475</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>1476</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>1477</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>1478</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="2">
         <v>1479</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="2">
         <v>1480</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <v>1481</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="2">
         <v>1482</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="2">
         <v>1483</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="2">
         <v>1484</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="2">
         <v>1485</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="2">
         <v>1486</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="2">
         <v>1487</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="2">
         <v>1488</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="2">
         <v>1489</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="2">
         <v>1490</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="2">
         <v>1491</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="2">
         <v>1492</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="2">
         <v>1493</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="2">
         <v>1494</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="2">
         <v>1495</v>
       </c>
       <c r="AG12" s="1">
@@ -1847,7 +1939,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1504</v>
       </c>
@@ -1872,76 +1964,76 @@
       <c r="H13" s="1">
         <v>1511</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>1512</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>1513</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>1514</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>1515</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>1516</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>1517</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>1518</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <v>1519</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <v>1520</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="3">
         <v>1521</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="3">
         <v>1522</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="3">
         <v>1523</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="3">
         <v>1524</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="3">
         <v>1525</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="3">
         <v>1526</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="2">
         <v>1527</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="2">
         <v>1528</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="3">
         <v>1529</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="3">
         <v>1530</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="3">
         <v>1531</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="3">
         <v>1532</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="3">
         <v>1533</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="3">
         <v>1534</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="2">
         <v>1535</v>
       </c>
       <c r="AG13" s="1">
@@ -1969,7 +2061,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1544</v>
       </c>
@@ -1994,76 +2086,76 @@
       <c r="H14" s="1">
         <v>1551</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>1552</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>1553</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>1554</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <v>1555</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>1556</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>1557</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>1558</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <v>1559</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <v>1560</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="3">
         <v>1561</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
         <v>1562</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="4">
         <v>1563</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="4">
         <v>1564</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="4">
         <v>1565</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="3">
         <v>1566</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="2">
         <v>1567</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="2">
         <v>1568</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="3">
         <v>1569</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="4">
         <v>1570</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="4">
         <v>1571</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="4">
         <v>1572</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="4">
         <v>1573</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="3">
         <v>1574</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="2">
         <v>1575</v>
       </c>
       <c r="AG14" s="1">
@@ -2091,7 +2183,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1584</v>
       </c>
@@ -2116,76 +2208,76 @@
       <c r="H15" s="1">
         <v>1591</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>1592</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>1593</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>1594</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>1595</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>1596</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>1597</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>1598</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <v>1599</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="2">
         <v>1600</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
         <v>1601</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="4">
         <v>1602</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="4">
         <v>1603</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="4">
         <v>1604</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="4">
         <v>1605</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="3">
         <v>1606</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="2">
         <v>1607</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="2">
         <v>1608</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="3">
         <v>1609</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="4">
         <v>1610</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="4">
         <v>1611</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="4">
         <v>1612</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="4">
         <v>1613</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="3">
         <v>1614</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="2">
         <v>1615</v>
       </c>
       <c r="AG15" s="1">
@@ -2213,7 +2305,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1624</v>
       </c>
@@ -2238,76 +2330,76 @@
       <c r="H16" s="1">
         <v>1631</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>1632</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>1633</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>1634</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="4">
         <v>1635</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <v>1636</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>1637</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>1638</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <v>1639</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="2">
         <v>1640</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="3">
         <v>1641</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="4">
         <v>1642</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="4">
         <v>1643</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="4">
         <v>1644</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="4">
         <v>1645</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="3">
         <v>1646</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="2">
         <v>1647</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="2">
         <v>1648</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="3">
         <v>1649</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="4">
         <v>1650</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="4">
         <v>1651</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="4">
         <v>1652</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="4">
         <v>1653</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="3">
         <v>1654</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="2">
         <v>1655</v>
       </c>
       <c r="AG16" s="1">
@@ -2335,7 +2427,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1664</v>
       </c>
@@ -2360,76 +2452,76 @@
       <c r="H17" s="1">
         <v>1671</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>1672</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>1673</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>1674</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>1675</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>1676</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>1677</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>1678</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="2">
         <v>1679</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="2">
         <v>1680</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <v>1681</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="4">
         <v>1682</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="4">
         <v>1683</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="4">
         <v>1684</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="4">
         <v>1685</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="3">
         <v>1686</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="2">
         <v>1687</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="2">
         <v>1688</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="3">
         <v>1689</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="4">
         <v>1690</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="4">
         <v>1691</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="4">
         <v>1692</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="4">
         <v>1693</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="3">
         <v>1694</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="2">
         <v>1695</v>
       </c>
       <c r="AG17" s="1">
@@ -2457,7 +2549,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1704</v>
       </c>
@@ -2482,76 +2574,76 @@
       <c r="H18" s="1">
         <v>1711</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>1712</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>1713</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>1714</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>1715</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>1716</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>1717</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>1718</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <v>1719</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="2">
         <v>1720</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
         <v>1721</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="3">
         <v>1722</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="3">
         <v>1723</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="3">
         <v>1724</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="3">
         <v>1725</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="3">
         <v>1726</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="2">
         <v>1727</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="2">
         <v>1728</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="3">
         <v>1729</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="3">
         <v>1730</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="3">
         <v>1731</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="3">
         <v>1732</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="3">
         <v>1733</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="3">
         <v>1734</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="2">
         <v>1735</v>
       </c>
       <c r="AG18" s="1">
@@ -2579,7 +2671,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1744</v>
       </c>
@@ -2604,76 +2696,76 @@
       <c r="H19" s="1">
         <v>1751</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>1752</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>1753</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>1754</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>1755</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>1756</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <v>1757</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>1758</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="2">
         <v>1759</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="2">
         <v>1760</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="2">
         <v>1761</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="2">
         <v>1762</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="2">
         <v>1763</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="2">
         <v>1764</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="2">
         <v>1765</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="2">
         <v>1766</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="2">
         <v>1767</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="2">
         <v>1768</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="2">
         <v>1769</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="2">
         <v>1770</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="2">
         <v>1771</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="2">
         <v>1772</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="2">
         <v>1773</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="2">
         <v>1774</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="2">
         <v>1775</v>
       </c>
       <c r="AG19" s="1">
@@ -2701,7 +2793,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1784</v>
       </c>
@@ -2726,76 +2818,76 @@
       <c r="H20" s="1">
         <v>1791</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>1792</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>1793</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>1794</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>1795</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>1796</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <v>1797</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <v>1798</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="2">
         <v>1799</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="2">
         <v>1800</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <v>1801</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="2">
         <v>1802</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="2">
         <v>1803</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="2">
         <v>1804</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="2">
         <v>1805</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="2">
         <v>1806</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="2">
         <v>1807</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="2">
         <v>1808</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="2">
         <v>1809</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="2">
         <v>1810</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="2">
         <v>1811</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="2">
         <v>1812</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="2">
         <v>1813</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="2">
         <v>1814</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="2">
         <v>1815</v>
       </c>
       <c r="AG20" s="1">
@@ -2823,7 +2915,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1824</v>
       </c>
@@ -2848,76 +2940,76 @@
       <c r="H21" s="1">
         <v>1831</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>1832</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>1833</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>1834</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>1835</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>1836</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>1837</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>1838</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="2">
         <v>1839</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="2">
         <v>1840</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>1841</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="3">
         <v>1842</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="3">
         <v>1843</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="3">
         <v>1844</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="3">
         <v>1845</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="3">
         <v>1846</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="2">
         <v>1847</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="2">
         <v>1848</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="3">
         <v>1849</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="3">
         <v>1850</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="3">
         <v>1851</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="3">
         <v>1852</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="3">
         <v>1853</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="3">
         <v>1854</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="2">
         <v>1855</v>
       </c>
       <c r="AG21" s="1">
@@ -2945,7 +3037,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1864</v>
       </c>
@@ -2970,76 +3062,76 @@
       <c r="H22" s="1">
         <v>1871</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>1872</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>1873</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>1874</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>1875</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>1876</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>1877</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>1878</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <v>1879</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="2">
         <v>1880</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="3">
         <v>1881</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="4">
         <v>1882</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="4">
         <v>1883</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="4">
         <v>1884</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="4">
         <v>1885</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="3">
         <v>1886</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="2">
         <v>1887</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="2">
         <v>1888</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="3">
         <v>1889</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="4">
         <v>1890</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="4">
         <v>1891</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="4">
         <v>1892</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="4">
         <v>1893</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="3">
         <v>1894</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="2">
         <v>1895</v>
       </c>
       <c r="AG22" s="1">
@@ -3067,7 +3159,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1904</v>
       </c>
@@ -3092,76 +3184,76 @@
       <c r="H23" s="1">
         <v>1911</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>1912</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>1913</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>1914</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>1915</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>1916</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="4">
         <v>1917</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <v>1918</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="2">
         <v>1919</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="2">
         <v>1920</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="3">
         <v>1921</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="4">
         <v>1922</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="4">
         <v>1923</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="4">
         <v>1924</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="4">
         <v>1925</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="3">
         <v>1926</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="2">
         <v>1927</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="2">
         <v>1928</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="3">
         <v>1929</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="4">
         <v>1930</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="4">
         <v>1931</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="4">
         <v>1932</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="4">
         <v>1933</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="3">
         <v>1934</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="2">
         <v>1935</v>
       </c>
       <c r="AG23" s="1">
@@ -3189,7 +3281,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1944</v>
       </c>
@@ -3214,76 +3306,76 @@
       <c r="H24" s="1">
         <v>1951</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>1952</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>1953</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>1954</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <v>1955</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>1956</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>1957</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <v>1958</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="2">
         <v>1959</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="2">
         <v>1960</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="3">
         <v>1961</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="4">
         <v>1962</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="4">
         <v>1963</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="4">
         <v>1964</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="4">
         <v>1965</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="3">
         <v>1966</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="2">
         <v>1967</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="2">
         <v>1968</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="3">
         <v>1969</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="4">
         <v>1970</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="4">
         <v>1971</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="4">
         <v>1972</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="4">
         <v>1973</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="3">
         <v>1974</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="2">
         <v>1975</v>
       </c>
       <c r="AG24" s="1">
@@ -3311,7 +3403,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1984</v>
       </c>
@@ -3336,76 +3428,76 @@
       <c r="H25" s="1">
         <v>1991</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>1992</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>1993</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>1994</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="4">
         <v>1995</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="4">
         <v>1996</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
         <v>1997</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <v>1998</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="2">
         <v>1999</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="2">
         <v>2000</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="3">
         <v>2001</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
         <v>2002</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="4">
         <v>2003</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="4">
         <v>2004</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="4">
         <v>2005</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="3">
         <v>2006</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="2">
         <v>2007</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="2">
         <v>2008</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="3">
         <v>2009</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="4">
         <v>2010</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="4">
         <v>2011</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="4">
         <v>2012</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="4">
         <v>2013</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="3">
         <v>2014</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="2">
         <v>2015</v>
       </c>
       <c r="AG25" s="1">
@@ -3433,7 +3525,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -3458,76 +3550,76 @@
       <c r="H26" s="1">
         <v>2031</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>2032</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>2033</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>2034</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>2035</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>2036</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>2037</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <v>2038</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="2">
         <v>2039</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="2">
         <v>2040</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="3">
         <v>2041</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="3">
         <v>2042</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="3">
         <v>2043</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="3">
         <v>2044</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="3">
         <v>2045</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="3">
         <v>2046</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="2">
         <v>2047</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="2">
         <v>2048</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="3">
         <v>2049</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="3">
         <v>2050</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="3">
         <v>2051</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="3">
         <v>2052</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="3">
         <v>2053</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="3">
         <v>2054</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="2">
         <v>2055</v>
       </c>
       <c r="AG26" s="1">
@@ -3555,7 +3647,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2064</v>
       </c>
@@ -3580,76 +3672,76 @@
       <c r="H27" s="1">
         <v>2071</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>2072</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>2073</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>2074</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>2075</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="2">
         <v>2076</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="2">
         <v>2077</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="2">
         <v>2078</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="2">
         <v>2079</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="2">
         <v>2080</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="2">
         <v>2081</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="2">
         <v>2082</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="2">
         <v>2083</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="2">
         <v>2084</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="2">
         <v>2085</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="2">
         <v>2086</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="2">
         <v>2087</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="2">
         <v>2088</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="2">
         <v>2089</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="2">
         <v>2090</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="2">
         <v>2091</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="2">
         <v>2092</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="2">
         <v>2093</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="2">
         <v>2094</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="2">
         <v>2095</v>
       </c>
       <c r="AG27" s="1">
@@ -3677,7 +3769,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2104</v>
       </c>
@@ -3799,7 +3891,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2144</v>
       </c>
@@ -3921,7 +4013,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2184</v>
       </c>
@@ -4041,6 +4133,26 @@
       </c>
       <c r="AN30">
         <v>2223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
